--- a/biology/Zoologie/Cercopis/Cercopis.xlsx
+++ b/biology/Zoologie/Cercopis/Cercopis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cercopis est un genre d'insectes de l'ordre des hémiptères (les hémiptères sont caractérisés par leurs deux paires d'ailes dont l'une, en partie cornée, est transformée en hémiélytre), de la famille des Cercopidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces rencontrées en Europe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cercopis arcuata Fieber 1844
 Cercopis intermedia Kirschbaum 1868
